--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9570" windowHeight="7605"/>
+    <workbookView windowWidth="7875" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -56,6 +56,78 @@
   </si>
   <si>
     <t>стр. 45</t>
+  </si>
+  <si>
+    <t>Стейси Уиллингхэм</t>
+  </si>
+  <si>
+    <t>Мерцание во тьме</t>
+  </si>
+  <si>
+    <t>Сюзанна Кларк</t>
+  </si>
+  <si>
+    <t>Пиранези</t>
+  </si>
+  <si>
+    <t>Роми Хаусманн</t>
+  </si>
+  <si>
+    <t>Милое дитя</t>
+  </si>
+  <si>
+    <t>Гарет Мур</t>
+  </si>
+  <si>
+    <t>Идеальное преступление</t>
+  </si>
+  <si>
+    <t>Эрих Формм</t>
+  </si>
+  <si>
+    <t>Человек для себя</t>
+  </si>
+  <si>
+    <t>Харуки Маруками</t>
+  </si>
+  <si>
+    <t>Охота на овец</t>
+  </si>
+  <si>
+    <t>стр. 10</t>
+  </si>
+  <si>
+    <t>Питер Свонсон</t>
+  </si>
+  <si>
+    <t>Восемь идеальных убийств</t>
+  </si>
+  <si>
+    <t>стр. 30</t>
+  </si>
+  <si>
+    <t>Рюноскэ Акутагава</t>
+  </si>
+  <si>
+    <t>Беседа с богом странствий</t>
+  </si>
+  <si>
+    <t>Брайан Фриман</t>
+  </si>
+  <si>
+    <t>Ночная птица</t>
+  </si>
+  <si>
+    <t>стр. 240</t>
+  </si>
+  <si>
+    <t>Ричард Шепперд</t>
+  </si>
+  <si>
+    <t>Неестественные причины</t>
+  </si>
+  <si>
+    <t>стр. 430</t>
   </si>
 </sst>
 </file>
@@ -64,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -81,6 +153,21 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -92,11 +179,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,13 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -123,9 +264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,21 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -162,21 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -185,51 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,127 +310,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,55 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,63 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,157 +550,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -691,6 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,13 +1089,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.85714285714286" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
@@ -1093,6 +1172,176 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45056</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7875" windowHeight="7605"/>
+    <workbookView windowWidth="11580" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,61 +172,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,31 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +316,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,79 +352,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,89 +496,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,15 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,19 +613,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,31 +646,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,13 +679,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -679,97 +694,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1173,172 +1189,172 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>45056</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>45056</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>45056</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>45056</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>45056</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>45056</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>45056</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>45056</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>45056</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>45056</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
